--- a/data/Users.xlsx
+++ b/data/Users.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MadOS\Desktop\Programming\С#\проекты\InfoBase\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1AD618B-8814-4BB6-8BC5-323B2761D0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E780DA-DC49-4B7A-8924-D6A6BD073C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4515" yWindow="3915" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>login1</t>
   </si>
@@ -46,48 +46,6 @@
     <t>password3</t>
   </si>
   <si>
-    <t>login4</t>
-  </si>
-  <si>
-    <t>password4</t>
-  </si>
-  <si>
-    <t>login5</t>
-  </si>
-  <si>
-    <t>password5</t>
-  </si>
-  <si>
-    <t>login6</t>
-  </si>
-  <si>
-    <t>password6</t>
-  </si>
-  <si>
-    <t>login7</t>
-  </si>
-  <si>
-    <t>password7</t>
-  </si>
-  <si>
-    <t>login8</t>
-  </si>
-  <si>
-    <t>password8</t>
-  </si>
-  <si>
-    <t>login9</t>
-  </si>
-  <si>
-    <t>password9</t>
-  </si>
-  <si>
-    <t>login10</t>
-  </si>
-  <si>
-    <t>password10</t>
-  </si>
-  <si>
     <t>teacher</t>
   </si>
   <si>
@@ -103,22 +61,10 @@
     <t>teachpassword2</t>
   </si>
   <si>
-    <t>teachlogin3</t>
-  </si>
-  <si>
-    <t>teachpassword3</t>
-  </si>
-  <si>
     <t>adminlogin1</t>
   </si>
   <si>
     <t>adminpassword1</t>
-  </si>
-  <si>
-    <t>adminlogin2</t>
-  </si>
-  <si>
-    <t>adminpassword2</t>
   </si>
 </sst>
 </file>
@@ -478,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,166 +439,67 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>32</v>
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="1" t="s">
         <v>2</v>
       </c>
     </row>

--- a/data/Users.xlsx
+++ b/data/Users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MadOS\Desktop\Programming\С#\проекты\InfoBase\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E780DA-DC49-4B7A-8924-D6A6BD073C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0ADD4D-75CD-4A08-88F3-055B77C52035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>login1</t>
   </si>
@@ -65,6 +65,24 @@
   </si>
   <si>
     <t>adminpassword1</t>
+  </si>
+  <si>
+    <t>ИмяАдмина1</t>
+  </si>
+  <si>
+    <t>ФИОучителя1</t>
+  </si>
+  <si>
+    <t>ФИОучителя2</t>
+  </si>
+  <si>
+    <t>ФИученика1</t>
+  </si>
+  <si>
+    <t>ФИученика2</t>
+  </si>
+  <si>
+    <t>ФИученика3</t>
   </si>
 </sst>
 </file>
@@ -424,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D6" sqref="D1:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,7 +455,7 @@
     <col min="3" max="3" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -447,8 +465,11 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -458,8 +479,11 @@
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -469,8 +493,11 @@
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,8 +507,11 @@
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -491,8 +521,11 @@
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -501,6 +534,9 @@
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/data/Users.xlsx
+++ b/data/Users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MadOS\Desktop\Programming\С#\проекты\InfoBase\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E780DA-DC49-4B7A-8924-D6A6BD073C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742AB0DC-0456-4CB1-A103-BA3C04FF74F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>login1</t>
   </si>
@@ -65,6 +65,24 @@
   </si>
   <si>
     <t>adminpassword1</t>
+  </si>
+  <si>
+    <t>ИмяАдмина1</t>
+  </si>
+  <si>
+    <t>ФИОучителя1</t>
+  </si>
+  <si>
+    <t>ФИОучителя2</t>
+  </si>
+  <si>
+    <t>ФИученика1</t>
+  </si>
+  <si>
+    <t>ФИученика2</t>
+  </si>
+  <si>
+    <t>ФИученика3</t>
   </si>
 </sst>
 </file>
@@ -424,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,7 +455,7 @@
     <col min="3" max="3" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -447,8 +465,11 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -458,8 +479,11 @@
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -469,8 +493,11 @@
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,8 +507,11 @@
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -491,8 +521,11 @@
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -501,6 +534,9 @@
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/data/Users.xlsx
+++ b/data/Users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MadOS\Desktop\Programming\С#\проекты\InfoBase\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742AB0DC-0456-4CB1-A103-BA3C04FF74F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E780DA-DC49-4B7A-8924-D6A6BD073C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>login1</t>
   </si>
@@ -65,24 +65,6 @@
   </si>
   <si>
     <t>adminpassword1</t>
-  </si>
-  <si>
-    <t>ИмяАдмина1</t>
-  </si>
-  <si>
-    <t>ФИОучителя1</t>
-  </si>
-  <si>
-    <t>ФИОучителя2</t>
-  </si>
-  <si>
-    <t>ФИученика1</t>
-  </si>
-  <si>
-    <t>ФИученика2</t>
-  </si>
-  <si>
-    <t>ФИученика3</t>
   </si>
 </sst>
 </file>
@@ -442,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,7 +437,7 @@
     <col min="3" max="3" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -465,11 +447,8 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -479,11 +458,8 @@
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -493,11 +469,8 @@
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -507,11 +480,8 @@
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -521,11 +491,8 @@
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -534,9 +501,6 @@
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/data/Users.xlsx
+++ b/data/Users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MadOS\Desktop\Programming\С#\проекты\InfoBase\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0ADD4D-75CD-4A08-88F3-055B77C52035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECB7A7D-3A75-4A46-B114-C1C2C1F939F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,12 +70,6 @@
     <t>ИмяАдмина1</t>
   </si>
   <si>
-    <t>ФИОучителя1</t>
-  </si>
-  <si>
-    <t>ФИОучителя2</t>
-  </si>
-  <si>
     <t>ФИученика1</t>
   </si>
   <si>
@@ -83,6 +77,12 @@
   </si>
   <si>
     <t>ФИученика3</t>
+  </si>
+  <si>
+    <t>Преподаватель 1</t>
+  </si>
+  <si>
+    <t>Преподаватель 2</t>
   </si>
 </sst>
 </file>
@@ -445,7 +445,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D1:D6"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,6 +453,7 @@
     <col min="1" max="1" width="35" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" customWidth="1"/>
     <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -480,7 +481,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -494,7 +495,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -508,7 +509,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -522,7 +523,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -536,7 +537,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/data/Users.xlsx
+++ b/data/Users.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MadOS\Desktop\Programming\С#\проекты\InfoBase\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECB7A7D-3A75-4A46-B114-C1C2C1F939F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9634D6-3584-42C9-B378-9C679E74DDD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,85 +22,80 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
+    <t>adminlogin1</t>
+  </si>
+  <si>
+    <t>adminpassword1</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>ИмяАдмина1</t>
+  </si>
+  <si>
+    <t>teachlogin1</t>
+  </si>
+  <si>
+    <t>teachpassword1</t>
+  </si>
+  <si>
+    <t>teacher</t>
+  </si>
+  <si>
+    <t>Преподаватель 1</t>
+  </si>
+  <si>
+    <t>teachlogin2</t>
+  </si>
+  <si>
+    <t>teachpassword2</t>
+  </si>
+  <si>
+    <t>Преподаватель 2</t>
+  </si>
+  <si>
+    <t>password1</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>ФИученика1</t>
+  </si>
+  <si>
+    <t>login2</t>
+  </si>
+  <si>
+    <t>password2</t>
+  </si>
+  <si>
+    <t>ФИученика2</t>
+  </si>
+  <si>
+    <t>login3</t>
+  </si>
+  <si>
+    <t>password3</t>
+  </si>
+  <si>
+    <t>ФИученика3</t>
+  </si>
+  <si>
     <t>login1</t>
-  </si>
-  <si>
-    <t>password1</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>login2</t>
-  </si>
-  <si>
-    <t>password2</t>
-  </si>
-  <si>
-    <t>login3</t>
-  </si>
-  <si>
-    <t>password3</t>
-  </si>
-  <si>
-    <t>teacher</t>
-  </si>
-  <si>
-    <t>teachlogin1</t>
-  </si>
-  <si>
-    <t>teachpassword1</t>
-  </si>
-  <si>
-    <t>teachlogin2</t>
-  </si>
-  <si>
-    <t>teachpassword2</t>
-  </si>
-  <si>
-    <t>adminlogin1</t>
-  </si>
-  <si>
-    <t>adminpassword1</t>
-  </si>
-  <si>
-    <t>ИмяАдмина1</t>
-  </si>
-  <si>
-    <t>ФИученика1</t>
-  </si>
-  <si>
-    <t>ФИученика2</t>
-  </si>
-  <si>
-    <t>ФИученика3</t>
-  </si>
-  <si>
-    <t>Преподаватель 1</t>
-  </si>
-  <si>
-    <t>Преподаватель 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -445,7 +440,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,91 +453,91 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/Users.xlsx
+++ b/data/Users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MadOS\Desktop\Programming\С#\проекты\InfoBase\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9634D6-3584-42C9-B378-9C679E74DDD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2940A226-4716-453F-AEC3-C599FD19F728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -440,7 +440,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/Users.xlsx
+++ b/data/Users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MadOS\Desktop\Programming\С#\проекты\InfoBase\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2940A226-4716-453F-AEC3-C599FD19F728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191541A3-088D-4B33-9A7E-F12AA9B58A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -440,7 +440,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/Users.xlsx
+++ b/data/Users.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MadOS\Desktop\Programming\С#\проекты\InfoBase\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191541A3-088D-4B33-9A7E-F12AA9B58A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E6916A-856A-4E91-A913-6F83A59A71D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3870" yWindow="3675" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>adminlogin1</t>
   </si>
@@ -34,62 +34,90 @@
     <t>ИмяАдмина1</t>
   </si>
   <si>
-    <t>teachlogin1</t>
-  </si>
-  <si>
-    <t>teachpassword1</t>
+    <t>login1</t>
+  </si>
+  <si>
+    <t>password1</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>ФИученика1</t>
+  </si>
+  <si>
+    <t>login2</t>
+  </si>
+  <si>
+    <t>password2</t>
+  </si>
+  <si>
+    <t>ФИученика2</t>
+  </si>
+  <si>
+    <t>login3</t>
+  </si>
+  <si>
+    <t>password3</t>
+  </si>
+  <si>
+    <t>ФИученика3</t>
+  </si>
+  <si>
+    <t>log1n11</t>
+  </si>
+  <si>
+    <t>password11</t>
   </si>
   <si>
     <t>teacher</t>
   </si>
   <si>
-    <t>Преподаватель 1</t>
-  </si>
-  <si>
-    <t>teachlogin2</t>
-  </si>
-  <si>
-    <t>teachpassword2</t>
-  </si>
-  <si>
-    <t>Преподаватель 2</t>
-  </si>
-  <si>
-    <t>password1</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>ФИученика1</t>
-  </si>
-  <si>
-    <t>login2</t>
-  </si>
-  <si>
-    <t>password2</t>
-  </si>
-  <si>
-    <t>ФИученика2</t>
-  </si>
-  <si>
-    <t>login3</t>
-  </si>
-  <si>
-    <t>password3</t>
-  </si>
-  <si>
-    <t>ФИученика3</t>
-  </si>
-  <si>
-    <t>login1</t>
+    <t>ФИученика21</t>
+  </si>
+  <si>
+    <t>log1n12</t>
+  </si>
+  <si>
+    <t>password12</t>
+  </si>
+  <si>
+    <t>ФИученика22</t>
+  </si>
+  <si>
+    <t>log1n13</t>
+  </si>
+  <si>
+    <t>password13</t>
+  </si>
+  <si>
+    <t>ФИученика23</t>
+  </si>
+  <si>
+    <t>log1n14</t>
+  </si>
+  <si>
+    <t>password14</t>
+  </si>
+  <si>
+    <t>ФИученика24</t>
+  </si>
+  <si>
+    <t>log1n15</t>
+  </si>
+  <si>
+    <t>password15</t>
+  </si>
+  <si>
+    <t>ФИученика25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -122,7 +150,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -437,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,11 +479,11 @@
     <col min="4" max="4" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -465,7 +493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -479,7 +507,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -493,51 +521,94 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5">
+      <c r="A5" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="C5" s="0" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="D5" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="1" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="B6" s="0" t="s">
         <v>19</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/data/Users.xlsx
+++ b/data/Users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MadOS\Desktop\Programming\С#\проекты\InfoBase\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E6916A-856A-4E91-A913-6F83A59A71D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81297DEE-4944-45D1-8CCD-C7ED3D20DA4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3870" yWindow="3675" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>adminlogin1</t>
   </si>
@@ -64,22 +64,13 @@
     <t>ФИученика3</t>
   </si>
   <si>
-    <t>log1n11</t>
-  </si>
-  <si>
-    <t>password11</t>
+    <t>log1n12</t>
+  </si>
+  <si>
+    <t>password12</t>
   </si>
   <si>
     <t>teacher</t>
-  </si>
-  <si>
-    <t>ФИученика21</t>
-  </si>
-  <si>
-    <t>log1n12</t>
-  </si>
-  <si>
-    <t>password12</t>
   </si>
   <si>
     <t>ФИученика22</t>
@@ -465,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,20 +582,6 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Users.xlsx
+++ b/data/Users.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MadOS\Desktop\Programming\С#\проекты\InfoBase\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\source\repos\M4dOS\InfoBase\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81297DEE-4944-45D1-8CCD-C7ED3D20DA4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4EC4A1-E0E4-45B1-AB2B-AB06532C17D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3870" yWindow="3675" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3240" yWindow="7560" windowWidth="10770" windowHeight="6330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>adminlogin1</t>
   </si>
@@ -101,6 +101,21 @@
   </si>
   <si>
     <t>ФИученика25</t>
+  </si>
+  <si>
+    <t>loshokLogin</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>lol</t>
+  </si>
+  <si>
+    <t>secondLogin</t>
+  </si>
+  <si>
+    <t>lol2</t>
   </si>
 </sst>
 </file>
@@ -456,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,6 +597,1434 @@
         <v>26</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D85" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D98" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D100" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D101" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D104" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D105" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D106" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D108" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D110" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
